--- a/data/pca/factorExposure/factorExposure_2012-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-03.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01595245218033559</v>
+        <v>-0.016385177950259</v>
       </c>
       <c r="C2">
-        <v>-0.03516859677367078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02925253158552837</v>
+      </c>
+      <c r="D2">
+        <v>-0.0005161607164915714</v>
+      </c>
+      <c r="E2">
+        <v>-0.009427639385697451</v>
+      </c>
+      <c r="F2">
+        <v>0.007494741759491425</v>
+      </c>
+      <c r="G2">
+        <v>0.005865657981571258</v>
+      </c>
+      <c r="H2">
+        <v>0.05977449690978354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07480901988556951</v>
+        <v>-0.08821360047332556</v>
       </c>
       <c r="C4">
-        <v>-0.05492283191969585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03890937111801187</v>
+      </c>
+      <c r="D4">
+        <v>-0.06529576187138569</v>
+      </c>
+      <c r="E4">
+        <v>-0.01456894017716502</v>
+      </c>
+      <c r="F4">
+        <v>0.03011792448300432</v>
+      </c>
+      <c r="G4">
+        <v>0.007385925400429537</v>
+      </c>
+      <c r="H4">
+        <v>-0.043405093629601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1074600335508778</v>
+        <v>-0.1194988954119627</v>
       </c>
       <c r="C6">
-        <v>-0.05676264452406914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03396714257061911</v>
+      </c>
+      <c r="D6">
+        <v>-0.008984653358564406</v>
+      </c>
+      <c r="E6">
+        <v>0.006374274585696574</v>
+      </c>
+      <c r="F6">
+        <v>0.06250174362278361</v>
+      </c>
+      <c r="G6">
+        <v>0.02324042619186285</v>
+      </c>
+      <c r="H6">
+        <v>0.1007064360023345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04933468184143184</v>
+        <v>-0.06496317179376121</v>
       </c>
       <c r="C7">
-        <v>-0.02749860386397678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01941864011241618</v>
+      </c>
+      <c r="D7">
+        <v>-0.04497797289744235</v>
+      </c>
+      <c r="E7">
+        <v>-0.0379380270980104</v>
+      </c>
+      <c r="F7">
+        <v>0.03610313808641167</v>
+      </c>
+      <c r="G7">
+        <v>-0.04079351743710962</v>
+      </c>
+      <c r="H7">
+        <v>-0.02326127487445158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03689021915277128</v>
+        <v>-0.04094481953069291</v>
       </c>
       <c r="C8">
-        <v>-0.01273273464302427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.008418631922223039</v>
+      </c>
+      <c r="D8">
+        <v>-0.02110342351708746</v>
+      </c>
+      <c r="E8">
+        <v>-0.03226641473613209</v>
+      </c>
+      <c r="F8">
+        <v>0.05031785744732237</v>
+      </c>
+      <c r="G8">
+        <v>0.04032805270720395</v>
+      </c>
+      <c r="H8">
+        <v>-0.003998859389543762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0677315426516719</v>
+        <v>-0.07979293646146168</v>
       </c>
       <c r="C9">
-        <v>-0.04544709221072762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02983439832496819</v>
+      </c>
+      <c r="D9">
+        <v>-0.0624054436270134</v>
+      </c>
+      <c r="E9">
+        <v>-0.0368711204719203</v>
+      </c>
+      <c r="F9">
+        <v>0.03300973722967179</v>
+      </c>
+      <c r="G9">
+        <v>0.009680720034361387</v>
+      </c>
+      <c r="H9">
+        <v>-0.05616344511702185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02882246463797583</v>
+        <v>-0.03462603656164032</v>
       </c>
       <c r="C10">
-        <v>-0.03404353226136936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04085091764828798</v>
+      </c>
+      <c r="D10">
+        <v>0.1702897122698398</v>
+      </c>
+      <c r="E10">
+        <v>-0.05405067409806505</v>
+      </c>
+      <c r="F10">
+        <v>0.04208313967773057</v>
+      </c>
+      <c r="G10">
+        <v>-0.04095529754389035</v>
+      </c>
+      <c r="H10">
+        <v>0.03616785375838311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07077812039902696</v>
+        <v>-0.07685628964586445</v>
       </c>
       <c r="C11">
-        <v>-0.04788711631375843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02769109967673894</v>
+      </c>
+      <c r="D11">
+        <v>-0.06081644135140309</v>
+      </c>
+      <c r="E11">
+        <v>0.003851139959021826</v>
+      </c>
+      <c r="F11">
+        <v>0.02738190145063155</v>
+      </c>
+      <c r="G11">
+        <v>-0.001219834028046381</v>
+      </c>
+      <c r="H11">
+        <v>-0.1046812114686356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0571568249815628</v>
+        <v>-0.06686803980051215</v>
       </c>
       <c r="C12">
-        <v>-0.05181446780824309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03624720623017371</v>
+      </c>
+      <c r="D12">
+        <v>-0.04827503957010222</v>
+      </c>
+      <c r="E12">
+        <v>-0.01412400356745092</v>
+      </c>
+      <c r="F12">
+        <v>0.01788615011596273</v>
+      </c>
+      <c r="G12">
+        <v>-0.0004145960611765549</v>
+      </c>
+      <c r="H12">
+        <v>-0.05750937710170559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05874689199238458</v>
+        <v>-0.06511397509534234</v>
       </c>
       <c r="C13">
-        <v>-0.0412842035240002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02599438892108005</v>
+      </c>
+      <c r="D13">
+        <v>-0.04220672700435087</v>
+      </c>
+      <c r="E13">
+        <v>-0.01385023023620815</v>
+      </c>
+      <c r="F13">
+        <v>0.00386737574063783</v>
+      </c>
+      <c r="G13">
+        <v>-0.0004977377852894367</v>
+      </c>
+      <c r="H13">
+        <v>-0.05380972467337156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03275293239463553</v>
+        <v>-0.0418942945309275</v>
       </c>
       <c r="C14">
-        <v>-0.03169123084009321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02802898715660733</v>
+      </c>
+      <c r="D14">
+        <v>-0.003001307415753494</v>
+      </c>
+      <c r="E14">
+        <v>-0.03054348880458185</v>
+      </c>
+      <c r="F14">
+        <v>0.01620162765016988</v>
+      </c>
+      <c r="G14">
+        <v>0.01558846375050264</v>
+      </c>
+      <c r="H14">
+        <v>-0.06374746058537309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03862876486939158</v>
+        <v>-0.03978454658750311</v>
       </c>
       <c r="C15">
-        <v>-0.01032706351438591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002917849831821545</v>
+      </c>
+      <c r="D15">
+        <v>-0.003713114986760222</v>
+      </c>
+      <c r="E15">
+        <v>-0.04075668314838427</v>
+      </c>
+      <c r="F15">
+        <v>-0.004283960778107561</v>
+      </c>
+      <c r="G15">
+        <v>0.02630900499239743</v>
+      </c>
+      <c r="H15">
+        <v>-0.04040257710625025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06019197115723216</v>
+        <v>-0.0701305268573436</v>
       </c>
       <c r="C16">
-        <v>-0.04354995845844498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02852527125183544</v>
+      </c>
+      <c r="D16">
+        <v>-0.06231580351636397</v>
+      </c>
+      <c r="E16">
+        <v>-0.007606639648277055</v>
+      </c>
+      <c r="F16">
+        <v>0.02266270156544528</v>
+      </c>
+      <c r="G16">
+        <v>-0.004632131229861796</v>
+      </c>
+      <c r="H16">
+        <v>-0.06295230191806225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06403730861511714</v>
+        <v>-0.06334962816070747</v>
       </c>
       <c r="C20">
-        <v>-0.03290226281165823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01397749222474434</v>
+      </c>
+      <c r="D20">
+        <v>-0.0392991098050575</v>
+      </c>
+      <c r="E20">
+        <v>-0.03201540318874346</v>
+      </c>
+      <c r="F20">
+        <v>0.01819939716238253</v>
+      </c>
+      <c r="G20">
+        <v>0.01311028019410022</v>
+      </c>
+      <c r="H20">
+        <v>-0.05816274666881142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02341529428551546</v>
+        <v>-0.02407731531845561</v>
       </c>
       <c r="C21">
-        <v>0.002117250213957987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009119481589281888</v>
+      </c>
+      <c r="D21">
+        <v>-0.02787717717948901</v>
+      </c>
+      <c r="E21">
+        <v>-0.03991234497904786</v>
+      </c>
+      <c r="F21">
+        <v>-0.01176548295215902</v>
+      </c>
+      <c r="G21">
+        <v>0.01171261305612842</v>
+      </c>
+      <c r="H21">
+        <v>0.04247176167581189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07174364942534829</v>
+        <v>-0.06903999071000563</v>
       </c>
       <c r="C22">
-        <v>-0.05978617350806392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03987708797706827</v>
+      </c>
+      <c r="D22">
+        <v>-0.07190197899747976</v>
+      </c>
+      <c r="E22">
+        <v>-0.5706313581361335</v>
+      </c>
+      <c r="F22">
+        <v>-0.2396691532072814</v>
+      </c>
+      <c r="G22">
+        <v>-0.04104775254052538</v>
+      </c>
+      <c r="H22">
+        <v>0.1761339736642668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07274015938161067</v>
+        <v>-0.06965911920697015</v>
       </c>
       <c r="C23">
-        <v>-0.05872473366293502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03858152229501802</v>
+      </c>
+      <c r="D23">
+        <v>-0.0728622287792785</v>
+      </c>
+      <c r="E23">
+        <v>-0.5702020952646081</v>
+      </c>
+      <c r="F23">
+        <v>-0.2385614698110133</v>
+      </c>
+      <c r="G23">
+        <v>-0.0394282041321696</v>
+      </c>
+      <c r="H23">
+        <v>0.1715451233875029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07044086745073459</v>
+        <v>-0.07987816447370426</v>
       </c>
       <c r="C24">
-        <v>-0.05220981046800977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03413978305205959</v>
+      </c>
+      <c r="D24">
+        <v>-0.05824068279652831</v>
+      </c>
+      <c r="E24">
+        <v>-0.01792279561712549</v>
+      </c>
+      <c r="F24">
+        <v>0.03261388895230082</v>
+      </c>
+      <c r="G24">
+        <v>0.006460912384554492</v>
+      </c>
+      <c r="H24">
+        <v>-0.0712772875834046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07039742408011097</v>
+        <v>-0.07742135121616296</v>
       </c>
       <c r="C25">
-        <v>-0.05779205137725839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03859456458055937</v>
+      </c>
+      <c r="D25">
+        <v>-0.05067728039417934</v>
+      </c>
+      <c r="E25">
+        <v>-0.01933509685084762</v>
+      </c>
+      <c r="F25">
+        <v>0.02683752411574342</v>
+      </c>
+      <c r="G25">
+        <v>0.01782908748469921</v>
+      </c>
+      <c r="H25">
+        <v>-0.07378295384625551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04444582593959482</v>
+        <v>-0.047302377775366</v>
       </c>
       <c r="C26">
-        <v>-0.009878556464164336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001724855208620161</v>
+      </c>
+      <c r="D26">
+        <v>-0.01695639265120916</v>
+      </c>
+      <c r="E26">
+        <v>-0.0520044811761971</v>
+      </c>
+      <c r="F26">
+        <v>0.02184041747845383</v>
+      </c>
+      <c r="G26">
+        <v>-0.003334406919829717</v>
+      </c>
+      <c r="H26">
+        <v>-0.06189752994583335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05415037085870897</v>
+        <v>-0.06351582674344572</v>
       </c>
       <c r="C28">
-        <v>-0.07314658832726487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08110561550385983</v>
+      </c>
+      <c r="D28">
+        <v>0.3084183760603063</v>
+      </c>
+      <c r="E28">
+        <v>-0.02804158946559215</v>
+      </c>
+      <c r="F28">
+        <v>0.05679957361603039</v>
+      </c>
+      <c r="G28">
+        <v>0.02267348237635962</v>
+      </c>
+      <c r="H28">
+        <v>0.04103722998463097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04040369150855926</v>
+        <v>-0.04859992195774433</v>
       </c>
       <c r="C29">
-        <v>-0.03207813114283128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02594760773268697</v>
+      </c>
+      <c r="D29">
+        <v>-0.003888259430230166</v>
+      </c>
+      <c r="E29">
+        <v>-0.05545686901280789</v>
+      </c>
+      <c r="F29">
+        <v>0.001922885468805596</v>
+      </c>
+      <c r="G29">
+        <v>-0.00148696826141618</v>
+      </c>
+      <c r="H29">
+        <v>-0.08859496899088089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1266224697443911</v>
+        <v>-0.1326195816118753</v>
       </c>
       <c r="C30">
-        <v>-0.09669101165939456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06481210800050417</v>
+      </c>
+      <c r="D30">
+        <v>-0.06912017235066245</v>
+      </c>
+      <c r="E30">
+        <v>-0.08150082057495711</v>
+      </c>
+      <c r="F30">
+        <v>-0.01607171678525574</v>
+      </c>
+      <c r="G30">
+        <v>0.07340321480072666</v>
+      </c>
+      <c r="H30">
+        <v>0.0168361629053777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04272268697717517</v>
+        <v>-0.04902854814817632</v>
       </c>
       <c r="C31">
-        <v>-0.02104365635055767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01274321334530918</v>
+      </c>
+      <c r="D31">
+        <v>-0.02436111598075983</v>
+      </c>
+      <c r="E31">
+        <v>-0.02928803167206063</v>
+      </c>
+      <c r="F31">
+        <v>0.009598556172001907</v>
+      </c>
+      <c r="G31">
+        <v>-0.02221729676680615</v>
+      </c>
+      <c r="H31">
+        <v>-0.06816712047638478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03507298853143274</v>
+        <v>-0.03791417125405336</v>
       </c>
       <c r="C32">
-        <v>-0.02239197473546376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0161090693207846</v>
+      </c>
+      <c r="D32">
+        <v>-0.0119241240591946</v>
+      </c>
+      <c r="E32">
+        <v>-0.06842663937838774</v>
+      </c>
+      <c r="F32">
+        <v>-0.01917049994317767</v>
+      </c>
+      <c r="G32">
+        <v>0.03338701831787258</v>
+      </c>
+      <c r="H32">
+        <v>-0.06320044256306646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08112710580969958</v>
+        <v>-0.0952549942639961</v>
       </c>
       <c r="C33">
-        <v>-0.04484484923325427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02709258631643173</v>
+      </c>
+      <c r="D33">
+        <v>-0.04952656329551974</v>
+      </c>
+      <c r="E33">
+        <v>-0.01476622141435444</v>
+      </c>
+      <c r="F33">
+        <v>0.001409067684549846</v>
+      </c>
+      <c r="G33">
+        <v>-0.00948199902580865</v>
+      </c>
+      <c r="H33">
+        <v>-0.07737324241005857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05536952212557913</v>
+        <v>-0.06173841623871815</v>
       </c>
       <c r="C34">
-        <v>-0.02938285116933679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01407775389965783</v>
+      </c>
+      <c r="D34">
+        <v>-0.05408683071130937</v>
+      </c>
+      <c r="E34">
+        <v>-0.01077953638565896</v>
+      </c>
+      <c r="F34">
+        <v>0.01479252700342965</v>
+      </c>
+      <c r="G34">
+        <v>0.005325935712970767</v>
+      </c>
+      <c r="H34">
+        <v>-0.06113021037194362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03687283221795402</v>
+        <v>-0.04001035126090691</v>
       </c>
       <c r="C35">
-        <v>-0.008925613056120503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002263267972628288</v>
+      </c>
+      <c r="D35">
+        <v>-0.006380731527300218</v>
+      </c>
+      <c r="E35">
+        <v>-0.01828035218108895</v>
+      </c>
+      <c r="F35">
+        <v>-0.01534360834565065</v>
+      </c>
+      <c r="G35">
+        <v>-0.009158872721458397</v>
+      </c>
+      <c r="H35">
+        <v>-0.03133752097309961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02007831110552349</v>
+        <v>-0.02705639134854814</v>
       </c>
       <c r="C36">
-        <v>-0.01737875029445036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01381086889987515</v>
+      </c>
+      <c r="D36">
+        <v>-0.0119409354077463</v>
+      </c>
+      <c r="E36">
+        <v>-0.04495715793723117</v>
+      </c>
+      <c r="F36">
+        <v>0.01406593934003751</v>
+      </c>
+      <c r="G36">
+        <v>-0.007190203973583986</v>
+      </c>
+      <c r="H36">
+        <v>-0.05092831979225559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03916941931558603</v>
+        <v>-0.04313514781184003</v>
       </c>
       <c r="C38">
-        <v>-0.0032950347470938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002483446290466851</v>
+      </c>
+      <c r="D38">
+        <v>-0.01665399138551052</v>
+      </c>
+      <c r="E38">
+        <v>-0.05635369298830214</v>
+      </c>
+      <c r="F38">
+        <v>-0.0195947150255886</v>
+      </c>
+      <c r="G38">
+        <v>0.01497269748772426</v>
+      </c>
+      <c r="H38">
+        <v>-0.01797876049775397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09003407715345899</v>
+        <v>-0.1022294634707578</v>
       </c>
       <c r="C39">
-        <v>-0.07236261969106457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04973878430458505</v>
+      </c>
+      <c r="D39">
+        <v>-0.06531358978146098</v>
+      </c>
+      <c r="E39">
+        <v>0.0002385345416707589</v>
+      </c>
+      <c r="F39">
+        <v>0.009516062509008702</v>
+      </c>
+      <c r="G39">
+        <v>0.03958278519376428</v>
+      </c>
+      <c r="H39">
+        <v>-0.07840694564685316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07285150171368317</v>
+        <v>-0.07175438438340848</v>
       </c>
       <c r="C40">
-        <v>-0.04086572596523532</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.02003458039183535</v>
+      </c>
+      <c r="D40">
+        <v>-0.01185139338068782</v>
+      </c>
+      <c r="E40">
+        <v>-0.02038746101116886</v>
+      </c>
+      <c r="F40">
+        <v>-0.05168138067931138</v>
+      </c>
+      <c r="G40">
+        <v>0.04306117913562427</v>
+      </c>
+      <c r="H40">
+        <v>0.07922349356623944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04083571663209108</v>
+        <v>-0.04401379935821149</v>
       </c>
       <c r="C41">
-        <v>-0.006597088418909831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001228589440763615</v>
+      </c>
+      <c r="D41">
+        <v>-0.03410010206992004</v>
+      </c>
+      <c r="E41">
+        <v>-0.002667260878653578</v>
+      </c>
+      <c r="F41">
+        <v>-0.01496412068011674</v>
+      </c>
+      <c r="G41">
+        <v>0.01402221547190678</v>
+      </c>
+      <c r="H41">
+        <v>-0.03939988445540907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04654241778549088</v>
+        <v>-0.05753396505917992</v>
       </c>
       <c r="C43">
-        <v>-0.02592586598082339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01738639940382564</v>
+      </c>
+      <c r="D43">
+        <v>-0.02483203853921288</v>
+      </c>
+      <c r="E43">
+        <v>-0.02033508289651616</v>
+      </c>
+      <c r="F43">
+        <v>0.01136539977547862</v>
+      </c>
+      <c r="G43">
+        <v>-0.01110029723699273</v>
+      </c>
+      <c r="H43">
+        <v>-0.05569432102217262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0917363162483238</v>
+        <v>-0.09391068842606877</v>
       </c>
       <c r="C44">
-        <v>-0.09497646448344457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06565105369443062</v>
+      </c>
+      <c r="D44">
+        <v>-0.06080451681257969</v>
+      </c>
+      <c r="E44">
+        <v>-0.09708174726901496</v>
+      </c>
+      <c r="F44">
+        <v>0.03865904210993827</v>
+      </c>
+      <c r="G44">
+        <v>0.02680233190829178</v>
+      </c>
+      <c r="H44">
+        <v>-0.02040828356574526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0255363311396649</v>
+        <v>-0.03302994526481329</v>
       </c>
       <c r="C46">
-        <v>-0.01409042146481758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01036707612129316</v>
+      </c>
+      <c r="D46">
+        <v>-0.02972987001884715</v>
+      </c>
+      <c r="E46">
+        <v>-0.03042459105197841</v>
+      </c>
+      <c r="F46">
+        <v>0.01656039620737392</v>
+      </c>
+      <c r="G46">
+        <v>0.006157123809417732</v>
+      </c>
+      <c r="H46">
+        <v>-0.04101774802914557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02893387542324404</v>
+        <v>-0.03735501863011863</v>
       </c>
       <c r="C47">
-        <v>-0.02553107832862714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02086100217126086</v>
+      </c>
+      <c r="D47">
+        <v>-0.0113681694421135</v>
+      </c>
+      <c r="E47">
+        <v>-0.05437988295816047</v>
+      </c>
+      <c r="F47">
+        <v>0.00475797563526126</v>
+      </c>
+      <c r="G47">
+        <v>-0.03956029354338215</v>
+      </c>
+      <c r="H47">
+        <v>-0.02400759704553096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03162450037832373</v>
+        <v>-0.03701444634178797</v>
       </c>
       <c r="C48">
-        <v>-0.01661415348639084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009612557372273359</v>
+      </c>
+      <c r="D48">
+        <v>-0.019532374463422</v>
+      </c>
+      <c r="E48">
+        <v>-0.04318741046559947</v>
+      </c>
+      <c r="F48">
+        <v>0.0002154084610661107</v>
+      </c>
+      <c r="G48">
+        <v>0.01221773823337906</v>
+      </c>
+      <c r="H48">
+        <v>-0.05189020289474412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1618081339813417</v>
+        <v>-0.1909049516399292</v>
       </c>
       <c r="C49">
-        <v>-0.06591267873954681</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03615073759542362</v>
+      </c>
+      <c r="D49">
+        <v>-0.03038513299317298</v>
+      </c>
+      <c r="E49">
+        <v>0.1432136363111837</v>
+      </c>
+      <c r="F49">
+        <v>0.07309827395359711</v>
+      </c>
+      <c r="G49">
+        <v>-0.06696777255932325</v>
+      </c>
+      <c r="H49">
+        <v>0.2474579449847077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03818599787673231</v>
+        <v>-0.04533516865878881</v>
       </c>
       <c r="C50">
-        <v>-0.02344370947165099</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01634056894266235</v>
+      </c>
+      <c r="D50">
+        <v>-0.02952607078851354</v>
+      </c>
+      <c r="E50">
+        <v>-0.05382962049286252</v>
+      </c>
+      <c r="F50">
+        <v>0.009592812884543009</v>
+      </c>
+      <c r="G50">
+        <v>-0.01747175783486549</v>
+      </c>
+      <c r="H50">
+        <v>-0.06331294542216054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02596907452881674</v>
+        <v>-0.02931743340635789</v>
       </c>
       <c r="C51">
-        <v>-0.008212707000823896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.003957304814515389</v>
+      </c>
+      <c r="D51">
+        <v>-0.01509078812358418</v>
+      </c>
+      <c r="E51">
+        <v>-0.01600276042799788</v>
+      </c>
+      <c r="F51">
+        <v>0.01871169203246457</v>
+      </c>
+      <c r="G51">
+        <v>0.00315298149175479</v>
+      </c>
+      <c r="H51">
+        <v>0.00492190162604584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1517144679029932</v>
+        <v>-0.1618614734306323</v>
       </c>
       <c r="C53">
-        <v>-0.08403272615981501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.0536308642105631</v>
+      </c>
+      <c r="D53">
+        <v>-0.0181917245186977</v>
+      </c>
+      <c r="E53">
+        <v>0.02417682278379461</v>
+      </c>
+      <c r="F53">
+        <v>0.0171832969942104</v>
+      </c>
+      <c r="G53">
+        <v>-0.005250892081622661</v>
+      </c>
+      <c r="H53">
+        <v>-0.1493113636108976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05625785799738967</v>
+        <v>-0.0582553606803921</v>
       </c>
       <c r="C54">
-        <v>-0.02499969521037345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01260610120325141</v>
+      </c>
+      <c r="D54">
+        <v>-0.01485585543868691</v>
+      </c>
+      <c r="E54">
+        <v>-0.05099954277882804</v>
+      </c>
+      <c r="F54">
+        <v>0.005958743133915925</v>
+      </c>
+      <c r="G54">
+        <v>0.01414462660961582</v>
+      </c>
+      <c r="H54">
+        <v>-0.05963276864431289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1004897069398965</v>
+        <v>-0.1041316628120035</v>
       </c>
       <c r="C55">
-        <v>-0.05910037107033738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0369078210881348</v>
+      </c>
+      <c r="D55">
+        <v>-0.02238655598231205</v>
+      </c>
+      <c r="E55">
+        <v>-0.01679722442607909</v>
+      </c>
+      <c r="F55">
+        <v>0.01707869836580862</v>
+      </c>
+      <c r="G55">
+        <v>0.005770805392125758</v>
+      </c>
+      <c r="H55">
+        <v>-0.1382691538799391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1461798607616476</v>
+        <v>-0.1596994317744885</v>
       </c>
       <c r="C56">
-        <v>-0.09511031163349308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06499295362906345</v>
+      </c>
+      <c r="D56">
+        <v>-0.0199365814208623</v>
+      </c>
+      <c r="E56">
+        <v>0.02343727184218439</v>
+      </c>
+      <c r="F56">
+        <v>0.03613607340924643</v>
+      </c>
+      <c r="G56">
+        <v>-0.01248143719316709</v>
+      </c>
+      <c r="H56">
+        <v>-0.1555068174366757</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1203117764292908</v>
+        <v>-0.09777719120227568</v>
       </c>
       <c r="C58">
-        <v>-0.007180358619647282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03285856298947386</v>
+      </c>
+      <c r="D58">
+        <v>-0.03820449499716933</v>
+      </c>
+      <c r="E58">
+        <v>-0.1652047278445667</v>
+      </c>
+      <c r="F58">
+        <v>-0.01468066077721522</v>
+      </c>
+      <c r="G58">
+        <v>-0.05860607622738594</v>
+      </c>
+      <c r="H58">
+        <v>0.1811337997730963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1165409611517996</v>
+        <v>-0.1372830197241089</v>
       </c>
       <c r="C59">
-        <v>-0.07966453012354748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08432556337565494</v>
+      </c>
+      <c r="D59">
+        <v>0.3640276756462907</v>
+      </c>
+      <c r="E59">
+        <v>-0.02704811172930083</v>
+      </c>
+      <c r="F59">
+        <v>0.0152694864349414</v>
+      </c>
+      <c r="G59">
+        <v>-0.04570589620287963</v>
+      </c>
+      <c r="H59">
+        <v>0.003595901592090028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2029961279780553</v>
+        <v>-0.2318113811411486</v>
       </c>
       <c r="C60">
-        <v>-0.1080048895502211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06942087281891374</v>
+      </c>
+      <c r="D60">
+        <v>-0.03785211521048448</v>
+      </c>
+      <c r="E60">
+        <v>0.09095697677144357</v>
+      </c>
+      <c r="F60">
+        <v>0.07414347118386297</v>
+      </c>
+      <c r="G60">
+        <v>0.01419427206367961</v>
+      </c>
+      <c r="H60">
+        <v>0.1856841109236654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07869904733288119</v>
+        <v>-0.08771544390703431</v>
       </c>
       <c r="C61">
-        <v>-0.05181475318077044</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03540125551522303</v>
+      </c>
+      <c r="D61">
+        <v>-0.04322551356142728</v>
+      </c>
+      <c r="E61">
+        <v>0.000912314070221646</v>
+      </c>
+      <c r="F61">
+        <v>0.004553646726627624</v>
+      </c>
+      <c r="G61">
+        <v>0.001306852467182484</v>
+      </c>
+      <c r="H61">
+        <v>-0.07594425856137889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1286130941974062</v>
+        <v>-0.1398693288431941</v>
       </c>
       <c r="C62">
-        <v>-0.06933396539472167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04276903713255906</v>
+      </c>
+      <c r="D62">
+        <v>-0.02631448456558407</v>
+      </c>
+      <c r="E62">
+        <v>0.06168902695498115</v>
+      </c>
+      <c r="F62">
+        <v>0.02249150481853567</v>
+      </c>
+      <c r="G62">
+        <v>0.02715158541472447</v>
+      </c>
+      <c r="H62">
+        <v>-0.1613299671335904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05055005118705747</v>
+        <v>-0.0502367143944453</v>
       </c>
       <c r="C63">
-        <v>-0.02616965634820474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01389410531945273</v>
+      </c>
+      <c r="D63">
+        <v>-0.0192322970748708</v>
+      </c>
+      <c r="E63">
+        <v>-0.05109148182270241</v>
+      </c>
+      <c r="F63">
+        <v>-0.0117576220319504</v>
+      </c>
+      <c r="G63">
+        <v>0.03207609795549181</v>
+      </c>
+      <c r="H63">
+        <v>-0.05997116631575384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1073991488987596</v>
+        <v>-0.1099350599128287</v>
       </c>
       <c r="C64">
-        <v>-0.02841110633134723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.00504445991545712</v>
+      </c>
+      <c r="D64">
+        <v>-0.03910691055731447</v>
+      </c>
+      <c r="E64">
+        <v>-0.04372687314157798</v>
+      </c>
+      <c r="F64">
+        <v>0.04457428615914343</v>
+      </c>
+      <c r="G64">
+        <v>0.04717416633285292</v>
+      </c>
+      <c r="H64">
+        <v>-0.05865248226673777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1204051113736906</v>
+        <v>-0.1271922949379511</v>
       </c>
       <c r="C65">
-        <v>-0.06327861550267158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03976477321737034</v>
+      </c>
+      <c r="D65">
+        <v>0.0007555497368677946</v>
+      </c>
+      <c r="E65">
+        <v>-0.01004286408948909</v>
+      </c>
+      <c r="F65">
+        <v>0.0681748825806586</v>
+      </c>
+      <c r="G65">
+        <v>0.05231271536139612</v>
+      </c>
+      <c r="H65">
+        <v>0.1241612469726345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411970280947178</v>
+        <v>-0.1537571400443703</v>
       </c>
       <c r="C66">
-        <v>-0.07825426969870906</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04562941021195421</v>
+      </c>
+      <c r="D66">
+        <v>-0.1006157280441022</v>
+      </c>
+      <c r="E66">
+        <v>0.0298011331586189</v>
+      </c>
+      <c r="F66">
+        <v>0.01979120938744023</v>
+      </c>
+      <c r="G66">
+        <v>0.04773766788601225</v>
+      </c>
+      <c r="H66">
+        <v>-0.1568292072394925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07165131161728791</v>
+        <v>-0.08237968080415434</v>
       </c>
       <c r="C67">
-        <v>-0.01530559353355563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004402895427318833</v>
+      </c>
+      <c r="D67">
+        <v>-0.03122711025029835</v>
+      </c>
+      <c r="E67">
+        <v>-0.02793185449375042</v>
+      </c>
+      <c r="F67">
+        <v>0.009686891402187705</v>
+      </c>
+      <c r="G67">
+        <v>-0.007402968265145343</v>
+      </c>
+      <c r="H67">
+        <v>-0.01782975089422613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05921040724119832</v>
+        <v>-0.05881696355079404</v>
       </c>
       <c r="C68">
-        <v>-0.050429812777677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05508099379760575</v>
+      </c>
+      <c r="D68">
+        <v>0.2698944248029608</v>
+      </c>
+      <c r="E68">
+        <v>-0.0381116005725077</v>
+      </c>
+      <c r="F68">
+        <v>0.01483389139005855</v>
+      </c>
+      <c r="G68">
+        <v>-0.01615751073233554</v>
+      </c>
+      <c r="H68">
+        <v>-0.007929425766552131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05335350172748854</v>
+        <v>-0.053027453518513</v>
       </c>
       <c r="C69">
-        <v>-0.02051600778595335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005630118266447858</v>
+      </c>
+      <c r="D69">
+        <v>-0.01661604741980261</v>
+      </c>
+      <c r="E69">
+        <v>-0.02536831704907522</v>
+      </c>
+      <c r="F69">
+        <v>-0.009037955548719884</v>
+      </c>
+      <c r="G69">
+        <v>-0.01248587758156917</v>
+      </c>
+      <c r="H69">
+        <v>-0.05349978439965514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005123150697867982</v>
+        <v>-0.02702828655270792</v>
       </c>
       <c r="C70">
-        <v>0.004332601097141817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0008092006060982813</v>
+      </c>
+      <c r="D70">
+        <v>-0.001444601663393342</v>
+      </c>
+      <c r="E70">
+        <v>0.02367281629342243</v>
+      </c>
+      <c r="F70">
+        <v>0.03001113070285708</v>
+      </c>
+      <c r="G70">
+        <v>-0.02179725225905398</v>
+      </c>
+      <c r="H70">
+        <v>0.05050177843078392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06013637891145885</v>
+        <v>-0.06181606862833663</v>
       </c>
       <c r="C71">
-        <v>-0.04929629074753913</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05677070374288713</v>
+      </c>
+      <c r="D71">
+        <v>0.2968567430651159</v>
+      </c>
+      <c r="E71">
+        <v>-0.03234015439105794</v>
+      </c>
+      <c r="F71">
+        <v>0.04378438723535601</v>
+      </c>
+      <c r="G71">
+        <v>-0.002891877766943789</v>
+      </c>
+      <c r="H71">
+        <v>-0.01791208294757168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1382186127569255</v>
+        <v>-0.1481275635973164</v>
       </c>
       <c r="C72">
-        <v>-0.06660867194651053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03801750805179482</v>
+      </c>
+      <c r="D72">
+        <v>0.01266420194659862</v>
+      </c>
+      <c r="E72">
+        <v>0.1221189930439051</v>
+      </c>
+      <c r="F72">
+        <v>-0.151672792461128</v>
+      </c>
+      <c r="G72">
+        <v>0.1145357666473536</v>
+      </c>
+      <c r="H72">
+        <v>-0.02357657876926537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2688314802630372</v>
+        <v>-0.2862448668641838</v>
       </c>
       <c r="C73">
-        <v>-0.1171241006271613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05012168207851122</v>
+      </c>
+      <c r="D73">
+        <v>-0.1025496498099968</v>
+      </c>
+      <c r="E73">
+        <v>0.2064816689272001</v>
+      </c>
+      <c r="F73">
+        <v>0.1105645411741985</v>
+      </c>
+      <c r="G73">
+        <v>-0.1905317581060658</v>
+      </c>
+      <c r="H73">
+        <v>0.4761908648346287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07986196535976726</v>
+        <v>-0.09238059011447826</v>
       </c>
       <c r="C74">
-        <v>-0.0798679666624168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0597592144461527</v>
+      </c>
+      <c r="D74">
+        <v>-0.03143873623391976</v>
+      </c>
+      <c r="E74">
+        <v>0.005729911808791487</v>
+      </c>
+      <c r="F74">
+        <v>-0.007722203335874455</v>
+      </c>
+      <c r="G74">
+        <v>-0.03614794726661412</v>
+      </c>
+      <c r="H74">
+        <v>-0.1205801237677311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09455137595266065</v>
+        <v>-0.1003358436548522</v>
       </c>
       <c r="C75">
-        <v>-0.05645305539631901</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02944141552704708</v>
+      </c>
+      <c r="D75">
+        <v>-0.01275007991595546</v>
+      </c>
+      <c r="E75">
+        <v>-0.007733452519373124</v>
+      </c>
+      <c r="F75">
+        <v>0.02945586052857031</v>
+      </c>
+      <c r="G75">
+        <v>-0.01121015091189099</v>
+      </c>
+      <c r="H75">
+        <v>-0.1104344617488942</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1287280138206682</v>
+        <v>-0.139435503302224</v>
       </c>
       <c r="C76">
-        <v>-0.08665586397799016</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05698244099031798</v>
+      </c>
+      <c r="D76">
+        <v>-0.04978582557400145</v>
+      </c>
+      <c r="E76">
+        <v>-0.03212729966202255</v>
+      </c>
+      <c r="F76">
+        <v>0.04416244569758272</v>
+      </c>
+      <c r="G76">
+        <v>0.002470653078361714</v>
+      </c>
+      <c r="H76">
+        <v>-0.1605135516032634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1186700462918787</v>
+        <v>-0.1136421347117766</v>
       </c>
       <c r="C77">
-        <v>-0.02481636365098639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003515252854789673</v>
+      </c>
+      <c r="D77">
+        <v>-0.0125398114538235</v>
+      </c>
+      <c r="E77">
+        <v>-0.006058789970029609</v>
+      </c>
+      <c r="F77">
+        <v>0.1576349471483244</v>
+      </c>
+      <c r="G77">
+        <v>0.8833480608767209</v>
+      </c>
+      <c r="H77">
+        <v>0.1947731629533397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09584637552751914</v>
+        <v>-0.1353594713578724</v>
       </c>
       <c r="C78">
-        <v>-0.04276138220455483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03469579009480114</v>
+      </c>
+      <c r="D78">
+        <v>-0.09692076962601089</v>
+      </c>
+      <c r="E78">
+        <v>-0.06073445866719154</v>
+      </c>
+      <c r="F78">
+        <v>0.02055784097763322</v>
+      </c>
+      <c r="G78">
+        <v>0.05059079734411789</v>
+      </c>
+      <c r="H78">
+        <v>0.05920509378831961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1457822007711918</v>
+        <v>-0.1515696323496474</v>
       </c>
       <c r="C79">
-        <v>-0.08351522113101902</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04675508779811915</v>
+      </c>
+      <c r="D79">
+        <v>-0.0279763963449652</v>
+      </c>
+      <c r="E79">
+        <v>0.01066670884271979</v>
+      </c>
+      <c r="F79">
+        <v>0.01640352147438457</v>
+      </c>
+      <c r="G79">
+        <v>-0.02546660919188992</v>
+      </c>
+      <c r="H79">
+        <v>-0.1679714323584918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04460851733588843</v>
+        <v>-0.04263124055927364</v>
       </c>
       <c r="C80">
-        <v>-0.01761085086992042</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006790939333536868</v>
+      </c>
+      <c r="D80">
+        <v>-0.01959149236109995</v>
+      </c>
+      <c r="E80">
+        <v>0.00487919015225974</v>
+      </c>
+      <c r="F80">
+        <v>-0.007958409547831788</v>
+      </c>
+      <c r="G80">
+        <v>-0.03412568839968859</v>
+      </c>
+      <c r="H80">
+        <v>-0.04365655049641002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1160706375251328</v>
+        <v>-0.1203910150403455</v>
       </c>
       <c r="C81">
-        <v>-0.06740621051575912</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03751006136220004</v>
+      </c>
+      <c r="D81">
+        <v>-0.02261583079378967</v>
+      </c>
+      <c r="E81">
+        <v>-0.02662153354198205</v>
+      </c>
+      <c r="F81">
+        <v>0.01379826821450067</v>
+      </c>
+      <c r="G81">
+        <v>-0.04092799434505839</v>
+      </c>
+      <c r="H81">
+        <v>-0.1519861592357825</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1289028107657219</v>
+        <v>-0.1302384245112231</v>
       </c>
       <c r="C82">
-        <v>-0.0818650120062614</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04946223825189848</v>
+      </c>
+      <c r="D82">
+        <v>-0.02764863112146139</v>
+      </c>
+      <c r="E82">
+        <v>0.01018714550276621</v>
+      </c>
+      <c r="F82">
+        <v>0.05606418690424116</v>
+      </c>
+      <c r="G82">
+        <v>-0.03584224120100115</v>
+      </c>
+      <c r="H82">
+        <v>-0.192648743803123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08008573401940192</v>
+        <v>-0.08850921215721733</v>
       </c>
       <c r="C83">
-        <v>0.0008934035539399339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01860819534024678</v>
+      </c>
+      <c r="D83">
+        <v>-0.03933763433019442</v>
+      </c>
+      <c r="E83">
+        <v>-0.02704144117045272</v>
+      </c>
+      <c r="F83">
+        <v>0.04604325294242888</v>
+      </c>
+      <c r="G83">
+        <v>-0.09132956393651497</v>
+      </c>
+      <c r="H83">
+        <v>0.05670642084120786</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02787156525110691</v>
+        <v>-0.03827758170726769</v>
       </c>
       <c r="C84">
-        <v>-0.02524917984590653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02032551701453547</v>
+      </c>
+      <c r="D84">
+        <v>-0.0291032801393861</v>
+      </c>
+      <c r="E84">
+        <v>-0.0214897032651645</v>
+      </c>
+      <c r="F84">
+        <v>-0.05339745382695679</v>
+      </c>
+      <c r="G84">
+        <v>-0.05363472124358766</v>
+      </c>
+      <c r="H84">
+        <v>-0.02103415808528961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1181540910709086</v>
+        <v>-0.1195226502752066</v>
       </c>
       <c r="C85">
-        <v>-0.06369019972912199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03215537905103858</v>
+      </c>
+      <c r="D85">
+        <v>-0.024435464458117</v>
+      </c>
+      <c r="E85">
+        <v>-0.02144885447424733</v>
+      </c>
+      <c r="F85">
+        <v>0.04037928078308221</v>
+      </c>
+      <c r="G85">
+        <v>-0.01393314024379706</v>
+      </c>
+      <c r="H85">
+        <v>-0.147942107186736</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05041863256839475</v>
+        <v>-0.05912015598961826</v>
       </c>
       <c r="C86">
-        <v>-0.02977687078131048</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01867490700320442</v>
+      </c>
+      <c r="D86">
+        <v>-0.02169513076734239</v>
+      </c>
+      <c r="E86">
+        <v>-0.06227557944295042</v>
+      </c>
+      <c r="F86">
+        <v>0.03135425286463642</v>
+      </c>
+      <c r="G86">
+        <v>-0.01411547306613801</v>
+      </c>
+      <c r="H86">
+        <v>-0.002188585080703819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.120403663501145</v>
+        <v>-0.121938714983357</v>
       </c>
       <c r="C87">
-        <v>-0.07234256572138099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03646705058269112</v>
+      </c>
+      <c r="D87">
+        <v>-0.0764855386059282</v>
+      </c>
+      <c r="E87">
+        <v>-0.02107647202625986</v>
+      </c>
+      <c r="F87">
+        <v>-0.003142484204809716</v>
+      </c>
+      <c r="G87">
+        <v>0.1098798873426288</v>
+      </c>
+      <c r="H87">
+        <v>0.02751468491528152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05329025242308769</v>
+        <v>-0.0608329905389653</v>
       </c>
       <c r="C88">
-        <v>-0.03032131702472598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0192362354759932</v>
+      </c>
+      <c r="D88">
+        <v>-0.02799393736850114</v>
+      </c>
+      <c r="E88">
+        <v>-0.02018521623064768</v>
+      </c>
+      <c r="F88">
+        <v>0.008584628963218082</v>
+      </c>
+      <c r="G88">
+        <v>0.01276567503934925</v>
+      </c>
+      <c r="H88">
+        <v>-0.0562368662359316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08141173467509139</v>
+        <v>-0.09303864217032198</v>
       </c>
       <c r="C89">
-        <v>-0.06634083878884472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07539541310066868</v>
+      </c>
+      <c r="D89">
+        <v>0.3432928081292455</v>
+      </c>
+      <c r="E89">
+        <v>-0.07183583640653789</v>
+      </c>
+      <c r="F89">
+        <v>0.08054223839061458</v>
+      </c>
+      <c r="G89">
+        <v>-0.02210392537429955</v>
+      </c>
+      <c r="H89">
+        <v>-0.00931528815186569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07369971813073392</v>
+        <v>-0.07986760945274564</v>
       </c>
       <c r="C90">
-        <v>-0.05898702465548255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06528658365332007</v>
+      </c>
+      <c r="D90">
+        <v>0.310616823949843</v>
+      </c>
+      <c r="E90">
+        <v>-0.06192075984958238</v>
+      </c>
+      <c r="F90">
+        <v>0.000738384321547203</v>
+      </c>
+      <c r="G90">
+        <v>-0.004018317120801879</v>
+      </c>
+      <c r="H90">
+        <v>-0.01295916856765491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08465211534227451</v>
+        <v>-0.08973576894794692</v>
       </c>
       <c r="C91">
-        <v>-0.05628335849939048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03348337394400907</v>
+      </c>
+      <c r="D91">
+        <v>-0.03010593042589648</v>
+      </c>
+      <c r="E91">
+        <v>-0.01432510168926678</v>
+      </c>
+      <c r="F91">
+        <v>0.004130990308480431</v>
+      </c>
+      <c r="G91">
+        <v>-0.04819233371564619</v>
+      </c>
+      <c r="H91">
+        <v>-0.07801872509098436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07409143853347853</v>
+        <v>-0.08010347796731182</v>
       </c>
       <c r="C92">
-        <v>-0.07210112936526376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.07908241629078097</v>
+      </c>
+      <c r="D92">
+        <v>0.3407020529622209</v>
+      </c>
+      <c r="E92">
+        <v>-0.04953393731447528</v>
+      </c>
+      <c r="F92">
+        <v>0.0356316474888738</v>
+      </c>
+      <c r="G92">
+        <v>0.002999568091547434</v>
+      </c>
+      <c r="H92">
+        <v>-0.02002142225731921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06673222933924514</v>
+        <v>-0.07860329436888823</v>
       </c>
       <c r="C93">
-        <v>-0.06542377975733386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07673209418992487</v>
+      </c>
+      <c r="D93">
+        <v>0.3084220552749868</v>
+      </c>
+      <c r="E93">
+        <v>-0.03865415511514547</v>
+      </c>
+      <c r="F93">
+        <v>0.04188182021210694</v>
+      </c>
+      <c r="G93">
+        <v>0.007174512288415839</v>
+      </c>
+      <c r="H93">
+        <v>0.007052839297005669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1333546124473896</v>
+        <v>-0.1276014081323271</v>
       </c>
       <c r="C94">
-        <v>-0.06132094312976211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02278221562548402</v>
+      </c>
+      <c r="D94">
+        <v>-0.04642581461675443</v>
+      </c>
+      <c r="E94">
+        <v>0.004650387153811649</v>
+      </c>
+      <c r="F94">
+        <v>0.02142520701336428</v>
+      </c>
+      <c r="G94">
+        <v>-0.04350602217221336</v>
+      </c>
+      <c r="H94">
+        <v>-0.100432614950571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1180349531246451</v>
+        <v>-0.1286956534567552</v>
       </c>
       <c r="C95">
-        <v>-0.03792703203791843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009270339264155651</v>
+      </c>
+      <c r="D95">
+        <v>-0.06223282401866467</v>
+      </c>
+      <c r="E95">
+        <v>-0.01265718568637126</v>
+      </c>
+      <c r="F95">
+        <v>0.04604042491866016</v>
+      </c>
+      <c r="G95">
+        <v>-0.01784885052280035</v>
+      </c>
+      <c r="H95">
+        <v>0.02717058582421096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2014112268383085</v>
+        <v>-0.210102236381659</v>
       </c>
       <c r="C97">
-        <v>-0.04598799989299991</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.005998340981279155</v>
+      </c>
+      <c r="D97">
+        <v>0.09187725825149383</v>
+      </c>
+      <c r="E97">
+        <v>0.3190277601642091</v>
+      </c>
+      <c r="F97">
+        <v>-0.8610674441327061</v>
+      </c>
+      <c r="G97">
+        <v>0.108827449741532</v>
+      </c>
+      <c r="H97">
+        <v>-0.007623112946793235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2429687779262226</v>
+        <v>-0.2737656944777051</v>
       </c>
       <c r="C98">
-        <v>-0.08419304895763077</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03654964524432662</v>
+      </c>
+      <c r="D98">
+        <v>-0.06423328292193332</v>
+      </c>
+      <c r="E98">
+        <v>0.1585893709934595</v>
+      </c>
+      <c r="F98">
+        <v>0.07057091775574613</v>
+      </c>
+      <c r="G98">
+        <v>-0.2734957948461461</v>
+      </c>
+      <c r="H98">
+        <v>0.2469358701011863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4680938643190873</v>
+        <v>-0.2868790551134683</v>
       </c>
       <c r="C99">
-        <v>0.8687946765647786</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9363833564643349</v>
+      </c>
+      <c r="D99">
+        <v>0.1209325245207326</v>
+      </c>
+      <c r="E99">
+        <v>-0.06642801542218904</v>
+      </c>
+      <c r="F99">
+        <v>0.04214802323917752</v>
+      </c>
+      <c r="G99">
+        <v>-0.01534924208229013</v>
+      </c>
+      <c r="H99">
+        <v>-0.06274684799657954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0404692661175136</v>
+        <v>-0.04869839555832061</v>
       </c>
       <c r="C101">
-        <v>-0.03207000595765886</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02603195576876435</v>
+      </c>
+      <c r="D101">
+        <v>-0.00442414321355058</v>
+      </c>
+      <c r="E101">
+        <v>-0.05451025041532908</v>
+      </c>
+      <c r="F101">
+        <v>0.001439145363383965</v>
+      </c>
+      <c r="G101">
+        <v>-0.001621579348739871</v>
+      </c>
+      <c r="H101">
+        <v>-0.08784546449088415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
